--- a/RESULTS/NNTestResults3-32To64Nodes-1Layer.xlsx
+++ b/RESULTS/NNTestResults3-32To64Nodes-1Layer.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>TRAINING_0</t>
   </si>
@@ -45,10 +45,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,16 +90,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -353,15 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,16 +449,13 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
         <v>0.71767430305500002</v>
       </c>
-      <c r="G1">
+      <c r="F1" s="1">
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -398,16 +469,13 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
         <v>0.757486820221</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="1">
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -421,16 +489,13 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
         <v>0.74972052574199999</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="1">
         <v>0.67499999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -444,16 +509,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
         <v>0.89371111393000002</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="1">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -467,16 +529,13 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
         <v>0.77902384996399998</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="1">
         <v>0.68333333333333324</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -490,16 +549,13 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
         <v>0.704446905851</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="1">
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -513,16 +569,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
         <v>0.89722945690199996</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="1">
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -536,16 +589,13 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
         <v>1.0148952841800001</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="1">
         <v>0.67499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -559,16 +609,13 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
         <v>0.61190712451899998</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="1">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -582,16 +629,13 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
         <v>1.7610508918800001</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="1">
         <v>0.56666666666666676</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -605,16 +649,13 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
         <v>0.75426552891700005</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -628,16 +669,13 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
         <v>0.95198569595799998</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="1">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -651,16 +689,13 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
         <v>1.1040643692000001</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="1">
         <v>0.3833333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -674,16 +709,13 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
         <v>1.11763233542</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="1">
         <v>0.61666666666666659</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -697,36 +729,25 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
         <v>0.91544084549000004</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="1">
         <v>0.67499999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>64</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.71577669382099995</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PCLOUD">
+      <formula>NOT(ISERROR(SEARCH("PCLOUD",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="IDEPTH">
+      <formula>NOT(ISERROR(SEARCH("IDEPTH",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ICOLOR">
+      <formula>NOT(ISERROR(SEARCH("ICOLOR",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>